--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1757729194359353, 0.13012079664062226, 0.13285524394835732, 0.171231486293588, 0.3752979122887914, 0.1549521660631866, 0.18932627239660701, 0.16266357456861272, 0.16422928049539764, 0.1240252489274742, 0.13463090455052687, 0.12976949264902557, 0.17904142714016563, 0.21926570175479085, 0.12165396046352103, 0.15867344409494355, 0.1275472986787722, 0.10448933163764733, 0.12222005011539219]</t>
+    <t>[1.0, 0.1810680655162657, 0.1389408881107738, 0.13568495174960218, 0.17438166284207746, 0.3968835663359785, 0.14958086177894703, 0.1972277462259116, 0.17187336246720356, 0.1647020588388224, 0.12319251699959385, 0.14287735740216964, 0.13409210900116061, 0.1896551839009485, 0.2305464903146036, 0.13379265951828337, 0.1692363483153363, 0.13682927450674534, 0.12145623928074482, 0.13287253682205427]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.23287956540147117, 0.17443777814252565, 0.16634614541679668, 0.20734471860375378, 0.26343586948573977, 0.1317104681130148, 0.14649607967987363, 0.12047166290631892, 0.15988173856564072, 0.1649064530858388, 0.1353254875036473, 0.1129377167035112, 0.13788157045406166, 0.16828732077259884, 0.10635784535691122, 0.14230833922483252, 0.1489336327778308, 0.12163180305889687, 0.08738990287158936]</t>
+    <t>[0.9999999999999999, 0.24771717609180904, 0.1829897222994545, 0.16179815961692046, 0.20801240975489613, 0.2865171501865134, 0.12232681364711173, 0.15057458856620715, 0.13209976169096183, 0.16842724292567463, 0.17231530964410674, 0.15077633018114048, 0.11854940902901025, 0.15737442471335736, 0.1818699312722914, 0.12559955900207448, 0.1550310318897615, 0.16813727829129818, 0.14142357826173899, 0.11102566554428152]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.010988428378977882, -0.04921181731271194, -0.06420760043620628, -0.05273345997281751, 0.29035375354031645, 0.025195080282601263, 0.007228314256517425, 0.01719153663398028, -0.006857227427753952, -0.06907271766159237, -0.06106488540700574, -0.030598653348629365, 0.023508173038901327, 0.046757296424504845, -0.014689149774101308, -0.018507088069220308, -0.04268243504341597, -0.04711210901952304, -0.035482238107404585]</t>
+    <t>[1.0, 0.013664902597682424, -0.04835544746087865, -0.07415039606176063, -0.06372547352477723, 0.30140981848791903, 0.02029249152402429, 0.009248824276025113, 0.015127575086847032, -0.014827632068282373, -0.08776497467455034, -0.059657727511022794, -0.028542689413831337, 0.027979236811910373, 0.04732719241902221, -0.01568598381192972, -0.010146843157736795, -0.03770774039442543, -0.04462489898131445, -0.038832468133576215]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.010165607450609147, -0.04901309950757094, -0.06474251635158627, -0.052745794558228046, 0.2905333561546549, 0.024978388249056033, 0.007295603821316108, 0.01638566913349809, -0.006948849840473221, -0.06814324204146022, -0.06108465973747744, -0.030650648877121347, 0.023370607485687693, 0.04710307635130273, -0.014487978622320416, -0.017955918268259645, -0.041886205254117084, -0.04650252755448629, -0.035542278975759706]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, 0.02452513744791199, -0.038075545904617855, -0.05876004774555581, -0.014199634878138497, 0.22091182599911535, 0.021481848965776852, 0.014425549944511217, -0.011919078292818026, -0.009683242255229721, -0.05160000840635173, -0.037176157641708965, -0.02574419680708342, 0.008411785616846546, 0.03798418337443638, -0.02658413754945694, -0.012150466297372464, -0.03380283348437231, -0.052287287966788186, -0.03304009609911819]</t>
+    <t>[0.9999999999999998, 0.013431549894932135, -0.04839480551473856, -0.07429445780478955, -0.06373787905723027, 0.30154552974757, 0.02029286424551268, 0.009306580916913687, 0.014928720855878973, -0.014765373504382914, -0.08750042905560264, -0.05951887557354756, -0.028456387001959467, 0.027935617448488433, 0.047494530975396174, -0.0155871904385998, -0.009940750808888215, -0.03758606500052652, -0.04452323584282263, -0.038831449357241525]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.024199944136474874, -0.04071684682780907, -0.06649319733123656, -0.021191906064247243, 0.23881938379890635, 0.013698181430104112, 0.01560507796895629, -0.011957705589616518, -0.018363886056220313, -0.0677658673827169, -0.038540301036076634, -0.022440500460462, 0.014577047628225313, 0.03268765136299908, -0.019231333787521843, -0.010021672011287956, -0.027497552047707374, -0.045878036567388966, -0.03512832346631533]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.08416508657525568</v>
+        <v>-0.1776109831868101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7855789005287703</v>
+        <v>0.7783110693441559</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>364.6169178066191</v>
+        <v>383.848296712782</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.006853226727584</v>
+        <v>1.06969696969697</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-6.702807285249546</v>
+        <v>-7.026667840185721</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6936946348852393</v>
+        <v>0.6879047765065119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>233.616705020562</v>
+        <v>249.4505626956585</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>6.731080728003657</v>
+        <v>6.864561894726315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.702354320098352</v>
+        <v>0.6922773217549091</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>234.2150180554948</v>
+        <v>242.8517483897935</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01710343389510583</v>
+        <v>-0.003620499177789568</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.549083294622785</v>
+        <v>3.556840396163731</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.04391208679432808</v>
+        <v>0.03985447404472094</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.945458116854444</v>
+        <v>0.9488371413387855</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.09771786591627307</v>
+        <v>-0.02644364686685877</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.502367387825018</v>
+        <v>3.562689117399171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03520051902499573</v>
+        <v>0.0382910043017482</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9454089928665422</v>
+        <v>0.9487401072585366</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0181493234319557</v>
+        <v>0.003313479378135294</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01909915648711362</v>
+        <v>-0.1376636876201886</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.188892034704653</v>
+        <v>3.279054323874111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03550416484973991</v>
+        <v>0.03104880442516395</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.948439846431152</v>
+        <v>0.9526466683261864</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01079919086965993</v>
+        <v>0.0088581106396615</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7883243645650251</v>
+        <v>0.7810757852440677</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1810680655162657, 0.1389408881107738, 0.13568495174960218, 0.17438166284207746, 0.3968835663359785, 0.14958086177894703, 0.1972277462259116, 0.17187336246720356, 0.1647020588388224, 0.12319251699959385, 0.14287735740216964, 0.13409210900116061, 0.1896551839009485, 0.2305464903146036, 0.13379265951828337, 0.1692363483153363, 0.13682927450674534, 0.12145623928074482, 0.13287253682205427]</t>
+    <t>[1.0, 0.05202639084398948, -0.04787658854942903, -0.137564655772672, -0.1135759129650511, 0.0814652442430326, 0.08392292471032542, 0.0650141108321826, 0.01882596158466086, -0.038275124714904935, -0.055957743162891295, -0.03351964838726925, -0.027860132598025427, 0.03596356767971705, 0.06635738590000892, 0.02904448965185704, -0.019894208338746715, -0.05739439196321059, -0.07880625685022305, -0.03848955196939101]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.24771717609180904, 0.1829897222994545, 0.16179815961692046, 0.20801240975489613, 0.2865171501865134, 0.12232681364711173, 0.15057458856620715, 0.13209976169096183, 0.16842724292567463, 0.17231530964410674, 0.15077633018114048, 0.11854940902901025, 0.15737442471335736, 0.1818699312722914, 0.12559955900207448, 0.1550310318897615, 0.16813727829129818, 0.14142357826173899, 0.11102566554428152]</t>
+    <t>[0.9999999999999998, 0.07910463187441695, 0.0012200437325331835, -0.015339275560061299, 0.012759060733731663, 0.04396598501313142, 0.022868912824314865, 0.009197891318008416, 0.014855828924272337, -0.03592794433053699, 0.017593264928896724, -0.003175085595637512, -0.015624586572985771, 0.02107159620831528, 0.01032916853707136, -0.004872857247384475, -0.01724781518624857, -0.0037221460144831347, -0.00014745470997201595, -0.035560880430825365]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.013664902597682424, -0.04835544746087865, -0.07415039606176063, -0.06372547352477723, 0.30140981848791903, 0.02029249152402429, 0.009248824276025113, 0.015127575086847032, -0.014827632068282373, -0.08776497467455034, -0.059657727511022794, -0.028542689413831337, 0.027979236811910373, 0.04732719241902221, -0.01568598381192972, -0.010146843157736795, -0.03770774039442543, -0.04462489898131445, -0.038832468133576215]</t>
+    <t>[1.0, -0.004467955966576106, -0.013515159629546096, -0.1125505947657036, -0.11787682487752815, 0.08896322718127544, 0.07715368960525949, 0.03842292999415225, 0.03268907777085203, -0.023153673058939457, -0.06142779477611715, -0.028066426470870598, -0.03650418414737522, 0.040067337460878656, 0.0632004838914419, 0.013962545764416896, -0.005557092108048057, -0.05160719264886217, -0.06799564921507192, -0.02244276823969729]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.013431549894932135, -0.04839480551473856, -0.07429445780478955, -0.06373787905723027, 0.30154552974757, 0.02029286424551268, 0.009306580916913687, 0.014928720855878973, -0.014765373504382914, -0.08750042905560264, -0.05951887557354756, -0.028456387001959467, 0.027935617448488433, 0.047494530975396174, -0.0155871904385998, -0.009940750808888215, -0.03758606500052652, -0.04452323584282263, -0.038831449357241525]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.024199944136474874, -0.04071684682780907, -0.06649319733123656, -0.021191906064247243, 0.23881938379890635, 0.013698181430104112, 0.01560507796895629, -0.011957705589616518, -0.018363886056220313, -0.0677658673827169, -0.038540301036076634, -0.022440500460462, 0.014577047628225313, 0.03268765136299908, -0.019231333787521843, -0.010021672011287956, -0.027497552047707374, -0.045878036567388966, -0.03512832346631533]</t>
+    <t>[0.9999999999999998, 0.002043434080231608, -0.015009377571391298, -0.11122217675688705, -0.1186019290787981, 0.08883855296594748, 0.07866507778417647, 0.037549421691318904, 0.03511525868919956, -0.024665241930410697, -0.06184083780473007, -0.026134983194632214, -0.03662565346173157, 0.04001098834157515, 0.063434271360994, 0.013826161458745195, -0.0048687207625587505, -0.05308640326266957, -0.06779493303737066, -0.020434405969308674]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.008607096596604247, -0.05221225668923381, -0.13561830953664733, -0.1168871903398202, 0.08357331039956306, 0.07980028961906957, 0.05977046282477866, 0.020404713490187933, -0.03885714891526289, -0.0544633338689825, -0.02478643711153862, -0.028127775027931498, 0.03724041166277746, 0.0636151010891946, 0.02657692101524521, -0.02314021020126849, -0.054875641863810165, -0.0758410459849212, -0.03570149011423548]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.1776109831868101</v>
+        <v>-0.003642638115616127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7783110693441559</v>
+        <v>0.7577246201537545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>383.848296712782</v>
+        <v>0.1005667238203967</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-7.026667840185721</v>
+        <v>-0.174468039891417</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6879047765065119</v>
+        <v>0.5526466161711083</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>249.4505626956585</v>
+        <v>0.05884290129237798</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>6.864561894726315</v>
+        <v>0.1508453391109807</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6922773217549091</v>
+        <v>0.6086437520559146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>242.8517483897935</v>
+        <v>0.05513269080032153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.003620499177789568</v>
+        <v>0.001267570511828704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.556840396163731</v>
+        <v>0.1027706486870374</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03985447404472094</v>
+        <v>0.06267436121305359</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9488371413387855</v>
+        <v>0.03726705645706307</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02644364686685877</v>
+        <v>-0.001351303423638564</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.562689117399171</v>
+        <v>0.1079204278174231</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0382910043017482</v>
+        <v>0.00809881279385187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9487401072585366</v>
+        <v>6.183727995461246E-13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.003313479378135294</v>
+        <v>0.09155320368891766</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.1376636876201886</v>
+        <v>-0.002889033725805676</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.279054323874111</v>
+        <v>0.09577388153613084</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03104880442516395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9526466683261864</v>
+        <v>3.685951251672595E-08</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0088581106396615</v>
+        <v>0.09070738144872696</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7810757852440677</v>
+        <v>0.7581471104568333</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.05934903057456115, -0.03718432798742897, -0.13430833207956575, -0.11600385354483805, 0.06648600349897396, 0.07706519566642162, 0.07057575971324062, 0.028408231977824806, -0.014532141118654036, -0.041486139913866196, -0.04191979876774159, -0.032235733728889666, 0.02166122195420839, 0.07949462095282736, 0.0269991213747482, -0.011554689278199958, -0.05881117691323813, -0.07438390568621393, -0.02120031411642606]</t>
+    <t>[1.0, 0.1757729194359353, 0.13012079664062226, 0.13285524394835732, 0.171231486293588, 0.3752979122887914, 0.1549521660631866, 0.18932627239660701, 0.16266357456861272, 0.16422928049539764, 0.1240252489274742, 0.13463090455052687, 0.12976949264902557, 0.17904142714016563, 0.21926570175479085, 0.12165396046352103, 0.15867344409494355, 0.1275472986787722, 0.10448933163764733, 0.12222005011539219]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.08585316820336887, 0.010466343000269556, -0.01639122791705044, 0.006704569562232264, 0.018607015195052586, 0.030923393532147955, 0.01588403136093296, 0.015095304532539553, -0.014928700935212326, 0.035365025612352594, -5.468505786476425e-05, -0.0046470016821889264, 0.016090307612094037, 0.018745582747095965, 0.004779681501959347, -0.007130882205483313, 1.1149801806136908e-05, -0.01122987166250195, -0.0264860248966748]</t>
+    <t>[1.0, 0.23287956540147117, 0.17443777814252565, 0.16634614541679668, 0.20734471860375378, 0.26343586948573977, 0.1317104681130148, 0.14649607967987363, 0.12047166290631892, 0.15988173856564072, 0.1649064530858388, 0.1353254875036473, 0.1129377167035112, 0.13788157045406166, 0.16828732077259884, 0.10635784535691122, 0.14230833922483252, 0.1489336327778308, 0.12163180305889687, 0.08738990287158936]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.0027733242051652435, -0.014510812028056768, -0.11234271032387556, -0.11642180874463824, 0.08259304020713498, 0.07083527292350533, 0.04076866777710224, 0.040616081361332074, -0.0005984518879112654, -0.047254237575591246, -0.03554821334522085, -0.03720139419733327, 0.028891431924285914, 0.06729866549169308, 0.014277077531757979, -0.003459317779668666, -0.04523919263468436, -0.06502299186605238, -0.01534748568868268]</t>
+    <t>[0.9999999999999998, 0.010988428378977882, -0.04921181731271194, -0.06420760043620628, -0.05273345997281751, 0.29035375354031645, 0.025195080282601263, 0.007228314256517425, 0.01719153663398028, -0.006857227427753952, -0.06907271766159237, -0.06106488540700574, -0.030598653348629365, 0.023508173038901327, 0.046757296424504845, -0.014689149774101308, -0.018507088069220308, -0.04268243504341597, -0.04711210901952304, -0.035482238107404585]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.002103841170356262, -0.01558063568184043, -0.11148165946146932, -0.11677522935251662, 0.08212354307644117, 0.07130729637611857, 0.04002363858110312, 0.04205344113051436, -0.0009372140402917143, -0.047554757127305954, -0.03386770250437362, -0.03755151990155824, 0.029311761635477624, 0.06629113524831533, 0.014623754273899578, -0.0037288738940222587, -0.04645840371764719, -0.06395020472339424, -0.01385066249259371]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.010865126182562013, -0.03861192520678699, -0.13230009666581408, -0.11676816525877518, 0.06894879152684229, 0.07224207686338115, 0.06504401452261534, 0.02779828152778292, -0.015165271218402923, -0.0396288033248067, -0.03493235551698677, -0.031547773447122486, 0.022041447497206344, 0.07748096441364949, 0.024204647458568818, -0.013968558036021884, -0.055821980919151484, -0.07100879970595554, -0.018342528183934715]</t>
+    <t>[0.9999999999999998, 0.010165607450609147, -0.04901309950757094, -0.06474251635158627, -0.052745794558228046, 0.2905333561546549, 0.024978388249056033, 0.007295603821316108, 0.01638566913349809, -0.006948849840473221, -0.06814324204146022, -0.06108465973747744, -0.030650648877121347, 0.023370607485687693, 0.04710307635130273, -0.014487978622320416, -0.017955918268259645, -0.041886205254117084, -0.04650252755448629, -0.035542278975759706]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999998, 0.02452513744791199, -0.038075545904617855, -0.05876004774555581, -0.014199634878138497, 0.22091182599911535, 0.021481848965776852, 0.014425549944511217, -0.011919078292818026, -0.009683242255229721, -0.05160000840635173, -0.037176157641708965, -0.02574419680708342, 0.008411785616846546, 0.03798418337443638, -0.02658413754945694, -0.012150466297372464, -0.03380283348437231, -0.052287287966788186, -0.03304009609911819]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001285542803471005</v>
+        <v>0.08416508657525568</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7608533461290954</v>
+        <v>0.7855789005287703</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1019348722124913</v>
+        <v>364.6169178066191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1710803502970955</v>
+        <v>-6.702807285249546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5569443299537464</v>
+        <v>0.6936946348852393</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05797195585215857</v>
+        <v>233.616705020562</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1558540236132235</v>
+        <v>6.731080728003657</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6078074463746773</v>
+        <v>0.702354320098352</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05887376022756782</v>
+        <v>234.2150180554948</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001198544915641051</v>
+        <v>0.01710343389510583</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1065077248420172</v>
+        <v>3.549083294622785</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06314705755733752</v>
+        <v>0.04391208679432808</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.01525575173542298</v>
+        <v>0.945458116854444</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008143841432041982</v>
+        <v>-0.09771786591627307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1088618018267434</v>
+        <v>3.502367387825018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.02114750259061262</v>
+        <v>0.03520051902499573</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9454089928665422</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.07301435743060793</v>
+        <v>0.0181493234319557</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001467051706814258</v>
+        <v>0.01909915648711362</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.09631165603764857</v>
+        <v>3.188892034704653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.02127729226308843</v>
+        <v>0.03550416484973991</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.948439846431152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.065912287755145</v>
+        <v>0.01079919086965993</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7599715892892427</v>
+        <v>0.7883243645650251</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1757729194359353, 0.13012079664062226, 0.13285524394835732, 0.171231486293588, 0.3752979122887914, 0.1549521660631866, 0.18932627239660701, 0.16266357456861272, 0.16422928049539764, 0.1240252489274742, 0.13463090455052687, 0.12976949264902557, 0.17904142714016563, 0.21926570175479085, 0.12165396046352103, 0.15867344409494355, 0.1275472986787722, 0.10448933163764733, 0.12222005011539219]</t>
+    <t>[1.0, 0.1757729194359354, 0.1301207966406224, 0.13285524394835752, 0.1712314862935881, 0.37529791228879117, 0.1549521660631864, 0.1893262723966071, 0.16266357456861263, 0.16422928049539767, 0.12402524892747421, 0.1346309045505269, 0.12976949264902563, 0.17904142714016558, 0.21926570175479082, 0.12165396046352103, 0.15867344409494352, 0.12754729867877232, 0.1044893316376473, 0.12222005011539218]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.23287956540147117, 0.17443777814252565, 0.16634614541679668, 0.20734471860375378, 0.26343586948573977, 0.1317104681130148, 0.14649607967987363, 0.12047166290631892, 0.15988173856564072, 0.1649064530858388, 0.1353254875036473, 0.1129377167035112, 0.13788157045406166, 0.16828732077259884, 0.10635784535691122, 0.14230833922483252, 0.1489336327778308, 0.12163180305889687, 0.08738990287158936]</t>
+    <t>[0.9999999999999999, 0.2328795654014712, 0.17443777814252587, 0.16634614541679665, 0.2073447186037538, 0.26343586948573966, 0.13171046811301473, 0.1464960796798737, 0.12047166290631885, 0.15988173856564075, 0.16490645308583868, 0.1353254875036473, 0.11293771670351123, 0.13788157045406169, 0.16828732077259898, 0.10635784535691123, 0.14230833922483252, 0.1489336327778309, 0.12163180305889683, 0.08738990287158932]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.010988428378977882, -0.04921181731271194, -0.06420760043620628, -0.05273345997281751, 0.29035375354031645, 0.025195080282601263, 0.007228314256517425, 0.01719153663398028, -0.006857227427753952, -0.06907271766159237, -0.06106488540700574, -0.030598653348629365, 0.023508173038901327, 0.046757296424504845, -0.014689149774101308, -0.018507088069220308, -0.04268243504341597, -0.04711210901952304, -0.035482238107404585]</t>
+    <t>[1.0, 0.010988583246824066, -0.04921171777272852, -0.06420746350543957, -0.052733369589095185, 0.29035379592477817, 0.025195170081143685, 0.00722830102953568, 0.0171915789897586, -0.00685722173765788, -0.06907269204745316, -0.06106486427156255, -0.030598660811792026, 0.02350817037206162, 0.04675721926813053, -0.014689133971018955, -0.018507172797635047, -0.04268246500945928, -0.04711213029911842, -0.03548227254287866]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.010165607450609147, -0.04901309950757094, -0.06474251635158627, -0.052745794558228046, 0.2905333561546549, 0.024978388249056033, 0.007295603821316108, 0.01638566913349809, -0.006948849840473221, -0.06814324204146022, -0.06108465973747744, -0.030650648877121347, 0.023370607485687693, 0.04710307635130273, -0.014487978622320416, -0.017955918268259645, -0.041886205254117084, -0.04650252755448629, -0.035542278975759706]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, 0.02452513744791199, -0.038075545904617855, -0.05876004774555581, -0.014199634878138497, 0.22091182599911535, 0.021481848965776852, 0.014425549944511217, -0.011919078292818026, -0.009683242255229721, -0.05160000840635173, -0.037176157641708965, -0.02574419680708342, 0.008411785616846546, 0.03798418337443638, -0.02658413754945694, -0.012150466297372464, -0.03380283348437231, -0.052287287966788186, -0.03304009609911819]</t>
+    <t>[0.9999999999999998, 0.010165607450609149, -0.04901309950757092, -0.0647425163515863, -0.05274579455822809, 0.29053335615465486, 0.024978388249056033, 0.007295603821316119, 0.016385669133498086, -0.006948849840473214, -0.06814324204146023, -0.06108465973747743, -0.03065064887712137, 0.0233706074856877, 0.04710307635130275, -0.01448797862232043, -0.017955918268259638, -0.04188620525411707, -0.04650252755448626, -0.0355422789757597]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.02452584748512629, -0.038074603581780386, -0.05875926258991936, -0.014198469702333514, 0.2209143419761911, 0.021482708803066845, 0.01442644241952221, -0.011917853975777803, -0.009681242630240675, -0.05159914159760625, -0.0371750858244955, -0.02574276631833547, 0.00841302988613506, 0.03798590517541002, -0.026582791657446345, -0.012148804890892751, -0.033801421395733645, -0.05228640174149084, -0.03303903226942292]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.08416508657525568</v>
+        <v>0.08416508657525652</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7855789005287703</v>
+        <v>0.7855789005287701</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.006853226727584</v>
+        <v>0.5017074558907229</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-6.702807285249546</v>
+        <v>-6.70280728524954</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6936946348852393</v>
+        <v>0.6936946348852389</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>233.616705020562</v>
+        <v>233.6167050205619</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>6.731080728003657</v>
+        <v>6.731080728003652</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.702354320098352</v>
+        <v>0.7023543200983525</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01710343389510583</v>
+        <v>0.01710904071169673</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.549083294622785</v>
+        <v>3.549039823309872</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.04391208679432808</v>
+        <v>0.04391195490454884</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.945458116854444</v>
+        <v>0.9454584108205205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.09771786591627307</v>
+        <v>-0.09771786591627318</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01909915648711362</v>
+        <v>0.01910803665368357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.188892034704653</v>
+        <v>3.189290618515964</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03550416484973991</v>
+        <v>0.03550545710338762</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.948439846431152</v>
+        <v>0.9484401086583983</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01079919086965993</v>
+        <v>0.01079262445548104</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7883243645650251</v>
+        <v>0.7883254416092603</v>
       </c>
     </row>
   </sheetData>
